--- a/insight_article/Insight_2/correl_results.xlsx
+++ b/insight_article/Insight_2/correl_results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_repo\fds\insight_article\Insight_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE4164-B0BB-4308-8AF1-1995654BC0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7320" yWindow="240" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r3000" sheetId="1" r:id="rId1"/>
     <sheet name="sp500" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -305,8 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,12 +329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -358,17 +370,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,9 +471,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +523,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,14 +716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,121 +804,121 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,7 +956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,7 +994,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -958,7 +1032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1262,83 +1336,83 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1376,83 +1450,83 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1490,7 +1564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1610,14 +1684,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1812,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1912,7 +2002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +2040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1988,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2026,7 +2116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2140,7 +2230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2178,7 +2268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2216,83 +2306,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2368,7 +2458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2406,7 +2496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2444,7 +2534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +2572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
